--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/98/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/98/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8038038038038038</v>
+        <v>0.501950195019502</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1235.235235235235</v>
+        <v>846.0146014601461</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01041041041041041</v>
+        <v>0.06825682568256826</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4224224224224224</v>
+        <v>0.4361436143614362</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268.2682682682683</v>
+        <v>1839.62396239624</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>875.875875875876</v>
+        <v>350.04500450045</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>618.6186186186187</v>
+        <v>392.3474347434743</v>
       </c>
     </row>
   </sheetData>
